--- a/design/API設計.xlsx
+++ b/design/API設計.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Atsu/dev/indev/HayabuSearch/design/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Atsu/dev/indev/SpeedSearch/design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9811FBE9-F356-0449-884A-2BCB09CD68BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C4716C-398E-D34C-813E-32700878F45A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="-3520" windowWidth="21600" windowHeight="38400" xr2:uid="{A752792F-1CD3-8C4A-873D-DAD5E60DD595}"/>
   </bookViews>
@@ -406,6 +406,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>270933</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>245533</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1830335</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>160866</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57022D42-7BB9-AA49-A69B-60F47F76569A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="270933" y="4309533"/>
+          <a:ext cx="7545335" cy="3979333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -708,7 +757,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -933,5 +982,6 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/design/API設計.xlsx
+++ b/design/API設計.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Atsu/dev/indev/SpeedSearch/design/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Atsu/Documents/dev/indev/SpeedSearch/design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C4716C-398E-D34C-813E-32700878F45A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78703881-87E3-754B-95E7-02A1B8C6511D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="-3520" windowWidth="21600" windowHeight="38400" xr2:uid="{A752792F-1CD3-8C4A-873D-DAD5E60DD595}"/>
+    <workbookView xWindow="7800" yWindow="21600" windowWidth="23880" windowHeight="16680" xr2:uid="{A752792F-1CD3-8C4A-873D-DAD5E60DD595}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -414,14 +414,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>270933</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>245533</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1830335</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>160866</xdr:rowOff>
+      <xdr:rowOff>169333</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -444,7 +444,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="270933" y="4309533"/>
+          <a:off x="270933" y="4318000"/>
           <a:ext cx="7545335" cy="3979333"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -452,6 +452,262 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>67733</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>135467</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>397933</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>211667</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="円/楕円 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB1446B7-A0DC-5C4D-886C-6F276555578D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="67733" y="6231467"/>
+          <a:ext cx="330200" cy="330200"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>84667</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>93134</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>414867</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>169334</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="円/楕円 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59AF9AE9-8692-FD42-AB18-D2AE91C1A6A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4343400" y="4157134"/>
+          <a:ext cx="330200" cy="330200"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2379133</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>143933</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2709333</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>220133</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="円/楕円 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBE0A7BE-1A2E-8445-B492-90DDBF26A088}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2379133" y="4969933"/>
+          <a:ext cx="330200" cy="330200"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>262467</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>110067</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>592667</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>186267</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="円/楕円 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E30692C-2EB9-0648-A22F-2F0CAA3A8847}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6248400" y="4174067"/>
+          <a:ext cx="330200" cy="330200"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -756,8 +1012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44A84F4B-AC8B-1447-A335-78E4988031E2}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
